--- a/Double_Slit/Datos/Datos_laser_rojo.xlsx
+++ b/Double_Slit/Datos/Datos_laser_rojo.xlsx
@@ -1,32 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\OneDrive - Universidad de Los Andes\Laboratorio Avanzado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealejandromontanacortes/Dropbox/Laboratorio_Avanzado/Double_Slit/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD620693-D412-4BC4-9971-2E7729CF77E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE5FA18-6130-F34D-A586-B2DDA6EA5856}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7377A886-8A1D-43AC-841A-679AEAB2E95A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{7377A886-8A1D-43AC-841A-679AEAB2E95A}"/>
   </bookViews>
   <sheets>
     <sheet name="Dos_rendijas" sheetId="1" r:id="rId1"/>
     <sheet name="Una rendija_izquierda" sheetId="2" r:id="rId2"/>
     <sheet name="Una_rendija_derecha" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Dos_rendijas!$D$2:$D$57</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Dos_rendijas!$E$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Dos_rendijas!$E$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Dos_rendijas!$E$2:$E$57</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Dos_rendijas!$D$2:$D$57</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Dos_rendijas!$E$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Dos_rendijas!$E$2:$E$57</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Dos_rendijas!$D$2:$D$57</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Dos_rendijas!$E$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Dos_rendijas!$E$2:$E$57</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Dos_rendijas!$D$2:$D$57</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Dos_rendijas!$E$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Dos_rendijas!$E$2:$E$57</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Dos_rendijas!$E$2:$E$57</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Dos_rendijas!$D$2:$D$57</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Dos_rendijas!$E$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Dos_rendijas!$E$2:$E$57</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Dos_rendijas!$D$2:$D$57</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Dos_rendijas!$E$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Dos_rendijas!$E$2:$E$57</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Dos_rendijas!$D$2:$D$57</definedName>
+  </definedNames>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -109,7 +126,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -146,7 +163,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -399,7 +416,7 @@
                   <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.84</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.74</c:v>
@@ -414,19 +431,19 @@
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.36</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.47</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.45</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.19</c:v>
@@ -474,10 +491,10 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1100000000000001</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.06</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.68</c:v>
@@ -621,7 +638,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="702256623"/>
@@ -683,7 +700,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="706941071"/>
@@ -731,7 +748,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -745,7 +762,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -782,7 +799,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1203,7 +1220,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937506271"/>
@@ -1265,7 +1282,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="623643423"/>
@@ -1313,7 +1330,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1327,7 +1344,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1364,7 +1381,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1755,7 +1772,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="778109871"/>
@@ -1817,7 +1834,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="762485855"/>
@@ -1865,7 +1882,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3548,16 +3565,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3668,7 +3685,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3966,13 +3983,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F09BB5-EA98-493C-9362-7B2C6B2155BB}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3983,7 +4000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3991,7 +4008,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-0.1</v>
       </c>
@@ -3999,7 +4016,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-0.2</v>
       </c>
@@ -4007,7 +4024,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-0.3</v>
       </c>
@@ -4015,7 +4032,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-0.4</v>
       </c>
@@ -4023,7 +4040,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-0.5</v>
       </c>
@@ -4031,7 +4048,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-0.6</v>
       </c>
@@ -4039,15 +4056,15 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-0.7</v>
       </c>
       <c r="B9">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-0.8</v>
       </c>
@@ -4056,7 +4073,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-0.9</v>
       </c>
@@ -4064,7 +4081,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-1</v>
       </c>
@@ -4072,7 +4089,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-1.1000000000000001</v>
       </c>
@@ -4080,47 +4097,47 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-1.2</v>
       </c>
       <c r="B14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-1.3</v>
       </c>
       <c r="B15">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-1.4</v>
       </c>
       <c r="B16">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-1.5</v>
       </c>
       <c r="B17">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-1.6</v>
       </c>
       <c r="B18">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-1.7</v>
       </c>
@@ -4128,7 +4145,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-1.8</v>
       </c>
@@ -4136,7 +4153,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-1.9</v>
       </c>
@@ -4144,7 +4161,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-2</v>
       </c>
@@ -4152,7 +4169,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-2.1</v>
       </c>
@@ -4160,7 +4177,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-2.2000000000000002</v>
       </c>
@@ -4168,7 +4185,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-2.2999999999999998</v>
       </c>
@@ -4176,7 +4193,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-2.4</v>
       </c>
@@ -4184,7 +4201,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -4192,7 +4209,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.1</v>
       </c>
@@ -4200,7 +4217,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.2</v>
       </c>
@@ -4208,7 +4225,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.3</v>
       </c>
@@ -4216,7 +4233,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.4</v>
       </c>
@@ -4224,7 +4241,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.5</v>
       </c>
@@ -4232,7 +4249,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.6</v>
       </c>
@@ -4240,23 +4257,23 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.7</v>
       </c>
       <c r="B34">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.8</v>
       </c>
       <c r="B35">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.9</v>
       </c>
@@ -4264,7 +4281,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -4272,7 +4289,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1.1000000000000001</v>
       </c>
@@ -4280,7 +4297,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1.2</v>
       </c>
@@ -4288,7 +4305,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1.3</v>
       </c>
@@ -4296,7 +4313,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1.4</v>
       </c>
@@ -4304,7 +4321,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1.5</v>
       </c>
@@ -4312,7 +4329,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1.6</v>
       </c>
@@ -4320,7 +4337,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1.7</v>
       </c>
@@ -4328,7 +4345,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1.8</v>
       </c>
@@ -4336,7 +4353,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1.9</v>
       </c>
@@ -4344,7 +4361,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2</v>
       </c>
@@ -4352,7 +4369,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2.1</v>
       </c>
@@ -4360,7 +4377,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2.2000000000000002</v>
       </c>
@@ -4368,7 +4385,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2.2999999999999998</v>
       </c>
@@ -4376,7 +4393,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2.4</v>
       </c>
@@ -4384,7 +4401,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2.5</v>
       </c>
@@ -4392,7 +4409,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2.6</v>
       </c>
@@ -4400,7 +4417,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2.7</v>
       </c>
@@ -4408,7 +4425,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2.8</v>
       </c>
@@ -4416,7 +4433,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2.9</v>
       </c>
@@ -4424,7 +4441,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>
@@ -4447,9 +4464,9 @@
       <selection activeCell="B1" activeCellId="1" sqref="A1:A1048576 B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4457,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4465,7 +4482,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-0.1</v>
       </c>
@@ -4473,7 +4490,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-0.2</v>
       </c>
@@ -4481,7 +4498,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-0.3</v>
       </c>
@@ -4489,7 +4506,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-0.4</v>
       </c>
@@ -4497,7 +4514,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-0.5</v>
       </c>
@@ -4505,7 +4522,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-0.6</v>
       </c>
@@ -4513,7 +4530,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-0.7</v>
       </c>
@@ -4521,7 +4538,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-0.8</v>
       </c>
@@ -4529,7 +4546,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-0.9</v>
       </c>
@@ -4537,7 +4554,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-1</v>
       </c>
@@ -4545,7 +4562,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-1.1000000000000001</v>
       </c>
@@ -4553,7 +4570,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-1.2</v>
       </c>
@@ -4561,7 +4578,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-1.3</v>
       </c>
@@ -4569,7 +4586,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-1.4</v>
       </c>
@@ -4577,7 +4594,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-1.5</v>
       </c>
@@ -4585,7 +4602,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-1.6</v>
       </c>
@@ -4593,7 +4610,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-1.7</v>
       </c>
@@ -4601,7 +4618,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-1.8</v>
       </c>
@@ -4609,7 +4626,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-1.9</v>
       </c>
@@ -4617,7 +4634,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-2</v>
       </c>
@@ -4625,7 +4642,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-2.1</v>
       </c>
@@ -4633,7 +4650,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-2.2000000000000002</v>
       </c>
@@ -4641,7 +4658,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-2.2999999999999998</v>
       </c>
@@ -4649,7 +4666,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-2.4</v>
       </c>
@@ -4657,7 +4674,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-2.5</v>
       </c>
@@ -4665,7 +4682,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -4673,7 +4690,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.1</v>
       </c>
@@ -4681,7 +4698,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.2</v>
       </c>
@@ -4689,7 +4706,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.3</v>
       </c>
@@ -4697,7 +4714,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.4</v>
       </c>
@@ -4705,7 +4722,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.5</v>
       </c>
@@ -4713,7 +4730,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.6</v>
       </c>
@@ -4721,7 +4738,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.7</v>
       </c>
@@ -4729,7 +4746,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.8</v>
       </c>
@@ -4737,7 +4754,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.9</v>
       </c>
@@ -4745,7 +4762,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -4753,7 +4770,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1.1000000000000001</v>
       </c>
@@ -4761,7 +4778,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1.2</v>
       </c>
@@ -4769,7 +4786,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1.3</v>
       </c>
@@ -4777,7 +4794,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1.4</v>
       </c>
@@ -4785,7 +4802,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1.5</v>
       </c>
@@ -4793,7 +4810,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1.6</v>
       </c>
@@ -4801,7 +4818,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1.7</v>
       </c>
@@ -4809,7 +4826,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1.8</v>
       </c>
@@ -4817,7 +4834,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1.9</v>
       </c>
@@ -4825,7 +4842,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2</v>
       </c>
@@ -4847,9 +4864,9 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4857,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4865,7 +4882,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-0.1</v>
       </c>
@@ -4873,7 +4890,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-0.2</v>
       </c>
@@ -4881,7 +4898,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-0.3</v>
       </c>
@@ -4889,7 +4906,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-0.4</v>
       </c>
@@ -4897,7 +4914,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-0.5</v>
       </c>
@@ -4905,7 +4922,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-0.6</v>
       </c>
@@ -4913,7 +4930,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-0.7</v>
       </c>
@@ -4921,7 +4938,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-0.8</v>
       </c>
@@ -4929,7 +4946,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-0.9</v>
       </c>
@@ -4937,7 +4954,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-1</v>
       </c>
@@ -4945,7 +4962,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-1.1000000000000001</v>
       </c>
@@ -4953,7 +4970,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-1.2</v>
       </c>
@@ -4961,7 +4978,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-1.3</v>
       </c>
@@ -4969,7 +4986,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-1.4</v>
       </c>
@@ -4977,7 +4994,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-1.5</v>
       </c>
@@ -4985,7 +5002,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-1.6</v>
       </c>
@@ -4993,7 +5010,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-1.7</v>
       </c>
@@ -5001,7 +5018,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-1.8</v>
       </c>
@@ -5009,7 +5026,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-1.9</v>
       </c>
@@ -5017,7 +5034,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-2</v>
       </c>
@@ -5025,7 +5042,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -5033,7 +5050,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.1</v>
       </c>
@@ -5041,7 +5058,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.2</v>
       </c>
@@ -5049,7 +5066,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.3</v>
       </c>
@@ -5057,7 +5074,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.4</v>
       </c>
@@ -5065,7 +5082,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.5</v>
       </c>
@@ -5073,7 +5090,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.6</v>
       </c>
@@ -5081,7 +5098,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.7</v>
       </c>
@@ -5089,7 +5106,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.8</v>
       </c>
@@ -5097,7 +5114,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.9</v>
       </c>
@@ -5105,7 +5122,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -5113,7 +5130,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1.1000000000000001</v>
       </c>
@@ -5121,7 +5138,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1.2</v>
       </c>
@@ -5129,7 +5146,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1.3</v>
       </c>
@@ -5137,7 +5154,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1.4</v>
       </c>
@@ -5145,7 +5162,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1.5</v>
       </c>
@@ -5153,7 +5170,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1.6</v>
       </c>
@@ -5161,7 +5178,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1.7</v>
       </c>
@@ -5169,7 +5186,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1.8</v>
       </c>
@@ -5177,7 +5194,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1.9</v>
       </c>
@@ -5185,7 +5202,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -5193,7 +5210,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
     </row>
   </sheetData>

--- a/Double_Slit/Datos/Datos_laser_rojo.xlsx
+++ b/Double_Slit/Datos/Datos_laser_rojo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealejandromontanacortes/Dropbox/Laboratorio_Avanzado/Double_Slit/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE5FA18-6130-F34D-A586-B2DDA6EA5856}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BA93AD-DABE-924D-9EAD-A96DC43F22CC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{7377A886-8A1D-43AC-841A-679AEAB2E95A}"/>
+    <workbookView xWindow="780" yWindow="700" windowWidth="23260" windowHeight="12580" xr2:uid="{7377A886-8A1D-43AC-841A-679AEAB2E95A}"/>
   </bookViews>
   <sheets>
     <sheet name="Dos_rendijas" sheetId="1" r:id="rId1"/>
@@ -281,108 +281,93 @@
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.2000000000000002</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.2999999999999998</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2.4</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.2</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.3</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.4</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.7</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.8</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.9</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.2</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.3</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.4</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.6</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.7</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.8</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.9</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.1</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.4</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="55">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -419,7 +404,7 @@
                   <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.74</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.47</c:v>
@@ -440,13 +425,13 @@
                   <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.39</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.19</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.11</c:v>
@@ -458,108 +443,93 @@
                   <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="33">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>0.11</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.68</c:v>
-                </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.52</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.26</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="55">
                   <c:v>0.13</c:v>
                 </c:pt>
               </c:numCache>
@@ -3565,16 +3535,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>629920</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>414020</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3981,10 +3951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F09BB5-EA98-493C-9362-7B2C6B2155BB}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4069,7 +4039,7 @@
         <v>-0.8</v>
       </c>
       <c r="B10">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -4126,7 +4096,7 @@
         <v>-1.5</v>
       </c>
       <c r="B17">
-        <v>0.55000000000000004</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -4134,7 +4104,7 @@
         <v>-1.6</v>
       </c>
       <c r="B18">
-        <v>0.39</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -4142,7 +4112,7 @@
         <v>-1.7</v>
       </c>
       <c r="B19">
-        <v>0.19</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4171,281 +4141,241 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>-2.1</v>
+        <v>0.1</v>
       </c>
       <c r="B23">
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>-2.2000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="B24">
-        <v>0.19</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>-2.2999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="B25">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>-2.4</v>
+        <v>0.4</v>
       </c>
       <c r="B26">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B27">
-        <v>1.1100000000000001</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="B28">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="B29">
-        <v>0.54</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="B30">
-        <v>0.17</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="B31">
-        <v>0.09</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B32">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B33">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="B34">
-        <v>0.92</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="B35">
-        <v>0.96</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="B36">
-        <v>0.68</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="B37">
-        <v>0.26</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="B38">
-        <v>0.05</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="B39">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="B40">
-        <v>0.57999999999999996</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="B41">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="B42">
-        <v>0.95</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="B43">
-        <v>0.69</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B44">
-        <v>0.3</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B45">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="B46">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="B47">
-        <v>0.35</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="B48">
-        <v>0.6</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2.2000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="B49">
-        <v>0.68</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>2.2999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="B50">
-        <v>0.52</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="B51">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="B52">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>2.6</v>
-      </c>
-      <c r="B53">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>2.7</v>
-      </c>
-      <c r="B54">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>2.8</v>
-      </c>
-      <c r="B55">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>2.9</v>
-      </c>
-      <c r="B56">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>3</v>
-      </c>
-      <c r="B57">
         <v>0.13</v>
       </c>
     </row>

--- a/Double_Slit/Datos/Datos_laser_rojo.xlsx
+++ b/Double_Slit/Datos/Datos_laser_rojo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealejandromontanacortes/Dropbox/Laboratorio_Avanzado/Double_Slit/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BA93AD-DABE-924D-9EAD-A96DC43F22CC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859E8560-7FBD-9146-80EB-06036BBBCC11}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="700" windowWidth="23260" windowHeight="12580" xr2:uid="{7377A886-8A1D-43AC-841A-679AEAB2E95A}"/>
   </bookViews>
@@ -392,7 +392,7 @@
                   <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.36</c:v>
@@ -464,7 +464,7 @@
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.96</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.68</c:v>
@@ -3953,8 +3953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F09BB5-EA98-493C-9362-7B2C6B2155BB}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4007,7 +4007,7 @@
         <v>-0.4</v>
       </c>
       <c r="B6">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4200,7 +4200,7 @@
         <v>0.8</v>
       </c>
       <c r="B30">
-        <v>0.96</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">

--- a/Double_Slit/Datos/Datos_laser_rojo.xlsx
+++ b/Double_Slit/Datos/Datos_laser_rojo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealejandromontanacortes/Dropbox/Laboratorio_Avanzado/Double_Slit/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859E8560-7FBD-9146-80EB-06036BBBCC11}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3150FAC5-2DBA-2B4D-99C4-9C2A7167BD2C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="700" windowWidth="23260" windowHeight="12580" xr2:uid="{7377A886-8A1D-43AC-841A-679AEAB2E95A}"/>
   </bookViews>
@@ -404,7 +404,7 @@
                   <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.47</c:v>
@@ -3953,8 +3953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F09BB5-EA98-493C-9362-7B2C6B2155BB}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4039,7 +4039,7 @@
         <v>-0.8</v>
       </c>
       <c r="B10">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="E10" s="2"/>
     </row>

--- a/Double_Slit/Datos/Datos_laser_rojo.xlsx
+++ b/Double_Slit/Datos/Datos_laser_rojo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealejandromontanacortes/Dropbox/Laboratorio_Avanzado/Double_Slit/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3150FAC5-2DBA-2B4D-99C4-9C2A7167BD2C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30805B0E-ED99-2147-97EB-9CA9AA8F554A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="700" windowWidth="23260" windowHeight="12580" xr2:uid="{7377A886-8A1D-43AC-841A-679AEAB2E95A}"/>
+    <workbookView xWindow="780" yWindow="700" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{7377A886-8A1D-43AC-841A-679AEAB2E95A}"/>
   </bookViews>
   <sheets>
     <sheet name="Dos_rendijas" sheetId="1" r:id="rId1"/>
@@ -18,27 +18,9 @@
     <sheet name="Una_rendija_derecha" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Dos_rendijas!$D$2:$D$57</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Dos_rendijas!$E$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Dos_rendijas!$E$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Dos_rendijas!$E$2:$E$57</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Dos_rendijas!$D$2:$D$57</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Dos_rendijas!$E$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Dos_rendijas!$E$2:$E$57</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Dos_rendijas!$D$2:$D$57</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Dos_rendijas!$E$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Dos_rendijas!$E$2:$E$57</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Dos_rendijas!$D$2:$D$57</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Dos_rendijas!$E$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Dos_rendijas!$E$2:$E$57</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Dos_rendijas!$E$2:$E$57</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Dos_rendijas!$D$2:$D$57</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Dos_rendijas!$E$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Dos_rendijas!$E$2:$E$57</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Dos_rendijas!$D$2:$D$57</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Dos_rendijas!$E$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Dos_rendijas!$E$2:$E$57</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Dos_rendijas!$D$2:$D$57</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Una_rendija_derecha!$A$2:$A$44</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Una_rendija_derecha!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Una_rendija_derecha!$C$2:$C$44</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -50,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Distancia</t>
   </si>
@@ -59,6 +41,9 @@
   </si>
   <si>
     <t>ruido en 0</t>
+  </si>
+  <si>
+    <t>Intensidad_2</t>
   </si>
 </sst>
 </file>
@@ -1863,6 +1848,558 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Una_rendija_derecha!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intensidad_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Una_rendija_derecha!$A$2:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Una_rendija_derecha!$C$2:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.21000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.47000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.41000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.29000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.24000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.21000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39E7-8646-BC45-875B5AD62B82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1573332639"/>
+        <c:axId val="1573458479"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1573332639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1573458479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1573458479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1573332639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1983,6 +2520,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3016,6 +3593,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3646,6 +4739,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AACC681-1321-D54B-9CA3-9A5D568ED1A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3953,7 +5082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F09BB5-EA98-493C-9362-7B2C6B2155BB}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -4391,7 +5520,7 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="A1:A1048576 B1:B1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4788,359 +5917,530 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666C06D5-BE33-4D7A-AE8B-A8475D54CB2B}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <f>IF(ABS(A2)&gt;0.2,B2+0.01,B2)</f>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-0.1</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <f t="shared" ref="C3:C43" si="0">IF(ABS(A3)&gt;0.2,B3+0.01,B3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-0.2</v>
       </c>
       <c r="B4">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-0.3</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-0.4</v>
       </c>
       <c r="B6">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-0.5</v>
       </c>
       <c r="B7">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-0.6</v>
       </c>
       <c r="B8">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.47000000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-0.7</v>
       </c>
       <c r="B9">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-0.8</v>
       </c>
       <c r="B10">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-0.9</v>
       </c>
       <c r="B11">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-1</v>
       </c>
       <c r="B12">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-1.1000000000000001</v>
       </c>
       <c r="B13">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-1.2</v>
       </c>
       <c r="B14">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-1.3</v>
       </c>
       <c r="B15">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-1.4</v>
       </c>
       <c r="B16">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-1.5</v>
       </c>
       <c r="B17">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.29000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-1.6</v>
       </c>
       <c r="B18">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-1.7</v>
       </c>
       <c r="B19">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-1.8</v>
       </c>
       <c r="B20">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-1.9</v>
       </c>
       <c r="B21">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-2</v>
       </c>
       <c r="B22">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
       <c r="B23">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.1</v>
       </c>
       <c r="B24">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.2</v>
       </c>
       <c r="B25">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.3</v>
       </c>
       <c r="B26">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.4</v>
       </c>
       <c r="B27">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0.47000000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.5</v>
       </c>
       <c r="B28">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.6</v>
       </c>
       <c r="B29">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.7</v>
       </c>
       <c r="B30">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.8</v>
       </c>
       <c r="B31">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0.41000000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.9</v>
       </c>
       <c r="B32">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1.1000000000000001</v>
       </c>
       <c r="B34">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0.35000000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1.2</v>
       </c>
       <c r="B35">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1.3</v>
       </c>
       <c r="B36">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1.4</v>
       </c>
       <c r="B37">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0.29000000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1.5</v>
       </c>
       <c r="B38">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1.6</v>
       </c>
       <c r="B39">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0.24000000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1.7</v>
       </c>
       <c r="B40">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1.8</v>
       </c>
       <c r="B41">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1.9</v>
       </c>
       <c r="B42">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
     </row>
   </sheetData>

--- a/Double_Slit/Datos/Datos_laser_rojo.xlsx
+++ b/Double_Slit/Datos/Datos_laser_rojo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealejandromontanacortes/Dropbox/Laboratorio_Avanzado/Double_Slit/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30805B0E-ED99-2147-97EB-9CA9AA8F554A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E965CE-E2E2-A547-A3B4-58686E6794C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="700" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{7377A886-8A1D-43AC-841A-679AEAB2E95A}"/>
   </bookViews>
@@ -17,11 +17,6 @@
     <sheet name="Una rendija_izquierda" sheetId="2" r:id="rId2"/>
     <sheet name="Una_rendija_derecha" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Una_rendija_derecha!$A$2:$A$44</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Una_rendija_derecha!$C$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Una_rendija_derecha!$C$2:$C$44</definedName>
-  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Distancia</t>
   </si>
@@ -44,6 +39,9 @@
   </si>
   <si>
     <t>Intensidad_2</t>
+  </si>
+  <si>
+    <t>Intensidad_3</t>
   </si>
 </sst>
 </file>
@@ -2400,6 +2398,556 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Una_rendija_derecha!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intensidad_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Una_rendija_derecha!$A$2:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Una_rendija_derecha!$D$2:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.24000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.47000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.41000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.42000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.33999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.32000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.24000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F86-784C-9B7F-2B4362EA5F7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1573933551"/>
+        <c:axId val="1575268591"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1573933551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1575268591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1575268591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1573933551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2560,6 +3108,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4109,6 +4697,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4746,16 +5850,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4775,6 +5879,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C3D08D-E9BC-5B46-992D-A52F6CD087F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5917,15 +7057,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666C06D5-BE33-4D7A-AE8B-A8475D54CB2B}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C43"/>
+      <selection activeCell="D2" sqref="D2:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5935,8 +7075,11 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5947,8 +7090,12 @@
         <f>IF(ABS(A2)&gt;0.2,B2+0.01,B2)</f>
         <v>0.53</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f>IF(ABS(A2)&gt;0.8,C2+0.03,C2)</f>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-0.1</v>
       </c>
@@ -5959,8 +7106,12 @@
         <f t="shared" ref="C3:C43" si="0">IF(ABS(A3)&gt;0.2,B3+0.01,B3)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <f t="shared" ref="D3:D43" si="1">IF(ABS(A3)&gt;0.8,C3+0.03,C3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-0.2</v>
       </c>
@@ -5971,8 +7122,12 @@
         <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-0.3</v>
       </c>
@@ -5983,8 +7138,12 @@
         <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-0.4</v>
       </c>
@@ -5995,8 +7154,12 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-0.5</v>
       </c>
@@ -6007,8 +7170,12 @@
         <f t="shared" si="0"/>
         <v>0.49</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-0.6</v>
       </c>
@@ -6019,8 +7186,12 @@
         <f t="shared" si="0"/>
         <v>0.47000000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.47000000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-0.7</v>
       </c>
@@ -6031,8 +7202,12 @@
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-0.8</v>
       </c>
@@ -6043,8 +7218,12 @@
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-0.9</v>
       </c>
@@ -6055,8 +7234,12 @@
         <f t="shared" si="0"/>
         <v>0.42</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-1</v>
       </c>
@@ -6067,8 +7250,12 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.43000000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-1.1000000000000001</v>
       </c>
@@ -6079,8 +7266,12 @@
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.41000000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-1.2</v>
       </c>
@@ -6091,8 +7282,12 @@
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-1.3</v>
       </c>
@@ -6103,8 +7298,12 @@
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-1.4</v>
       </c>
@@ -6115,8 +7314,12 @@
         <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-1.5</v>
       </c>
@@ -6127,8 +7330,12 @@
         <f t="shared" si="0"/>
         <v>0.29000000000000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.32000000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-1.6</v>
       </c>
@@ -6139,8 +7346,12 @@
         <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-1.7</v>
       </c>
@@ -6151,8 +7362,12 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-1.8</v>
       </c>
@@ -6163,8 +7378,12 @@
         <f t="shared" si="0"/>
         <v>0.23</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-1.9</v>
       </c>
@@ -6175,8 +7394,12 @@
         <f t="shared" si="0"/>
         <v>0.21000000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.24000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-2</v>
       </c>
@@ -6187,8 +7410,12 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -6199,8 +7426,12 @@
         <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.1</v>
       </c>
@@ -6211,8 +7442,12 @@
         <f t="shared" si="0"/>
         <v>0.49</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.2</v>
       </c>
@@ -6223,8 +7458,12 @@
         <f t="shared" si="0"/>
         <v>0.49</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.3</v>
       </c>
@@ -6235,8 +7474,12 @@
         <f t="shared" si="0"/>
         <v>0.49</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.4</v>
       </c>
@@ -6247,8 +7490,12 @@
         <f t="shared" si="0"/>
         <v>0.47000000000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0.47000000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.5</v>
       </c>
@@ -6259,8 +7506,12 @@
         <f t="shared" si="0"/>
         <v>0.46</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.6</v>
       </c>
@@ -6271,8 +7522,12 @@
         <f t="shared" si="0"/>
         <v>0.44</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.7</v>
       </c>
@@ -6283,8 +7538,12 @@
         <f t="shared" si="0"/>
         <v>0.42</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.8</v>
       </c>
@@ -6295,8 +7554,12 @@
         <f t="shared" si="0"/>
         <v>0.41000000000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>0.41000000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.9</v>
       </c>
@@ -6307,8 +7570,12 @@
         <f t="shared" si="0"/>
         <v>0.39</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0.42000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -6319,8 +7586,12 @@
         <f t="shared" si="0"/>
         <v>0.37</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1.1000000000000001</v>
       </c>
@@ -6331,8 +7602,12 @@
         <f t="shared" si="0"/>
         <v>0.35000000000000003</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1.2</v>
       </c>
@@ -6343,8 +7618,12 @@
         <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1.3</v>
       </c>
@@ -6355,8 +7634,12 @@
         <f t="shared" si="0"/>
         <v>0.31</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0.33999999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1.4</v>
       </c>
@@ -6367,8 +7650,12 @@
         <f t="shared" si="0"/>
         <v>0.29000000000000004</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>0.32000000000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1.5</v>
       </c>
@@ -6379,8 +7666,12 @@
         <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1.6</v>
       </c>
@@ -6391,8 +7682,12 @@
         <f t="shared" si="0"/>
         <v>0.24000000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1.7</v>
       </c>
@@ -6403,8 +7698,12 @@
         <f t="shared" si="0"/>
         <v>0.23</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1.8</v>
       </c>
@@ -6415,8 +7714,12 @@
         <f t="shared" si="0"/>
         <v>0.21000000000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>0.24000000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1.9</v>
       </c>
@@ -6427,8 +7730,12 @@
         <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -6439,8 +7746,12 @@
         <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
     </row>
   </sheetData>
